--- a/qsdsan/data/_impact_item.xlsx
+++ b/qsdsan/data/_impact_item.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11213"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/sanitation_Yalin/sanitation/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/qs_yl/qsdsan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="142" documentId="8_{935E0A0B-8DD3-6742-99D3-41177F9390EC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{CF888D65-6326-6140-83F0-C3AF0E3F0C4A}"/>
+  <xr:revisionPtr revIDLastSave="144" documentId="8_{935E0A0B-8DD3-6742-99D3-41177F9390EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0E89C8A-0DCF-8443-8EC3-83112B8CAC8E}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="2260" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -184,11 +184,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -512,7 +509,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -522,10 +519,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>14</v>
       </c>
     </row>
@@ -541,7 +538,7 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -549,7 +546,7 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>15</v>
       </c>
     </row>
@@ -632,10 +629,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28627DAA-889C-6942-A3B5-3C8A993554C1}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -645,25 +642,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="4" t="s">
         <v>9</v>
       </c>
     </row>
@@ -675,16 +672,16 @@
       <c r="B2" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="5">
         <v>0.53</v>
       </c>
-      <c r="D2" s="6">
+      <c r="D2" s="5">
         <v>0.51</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="5">
         <v>0.55000000000000004</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G2" t="s">
@@ -699,19 +696,19 @@
       <c r="B3" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>0.28000000000000003</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.25</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.31</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G3" s="2" t="s">
+      <c r="F3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -723,19 +720,19 @@
       <c r="B4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1.08</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="6">
         <v>0.97</v>
       </c>
-      <c r="E4" s="7">
+      <c r="E4" s="6">
         <v>1.19</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G4" s="2" t="s">
+      <c r="F4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -747,16 +744,16 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>300</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>218</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>385</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G5" t="s">
@@ -771,16 +768,16 @@
       <c r="B6" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="E6" s="6">
+      <c r="E6" s="5">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -795,16 +792,16 @@
       <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>1.97</v>
       </c>
-      <c r="D7" s="6">
+      <c r="D7" s="5">
         <v>1.93</v>
       </c>
-      <c r="E7" s="6">
+      <c r="E7" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G7" t="s">
@@ -819,16 +816,16 @@
       <c r="B8" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>1.2E-2</v>
       </c>
-      <c r="D8" s="6">
+      <c r="D8" s="5">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="E8" s="6">
+      <c r="E8" s="5">
         <v>1.2999999999999999E-2</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G8" t="s">
@@ -843,16 +840,16 @@
       <c r="B9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>4.33</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <v>3.07</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <v>5.5</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G9" t="s">
@@ -867,16 +864,16 @@
       <c r="B10" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>0.65</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <v>0.57999999999999996</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <v>0.71</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G10" t="s">
@@ -891,16 +888,16 @@
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <v>2.5499999999999998</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <v>2.13</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <v>3.15</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G11" t="s">
@@ -915,19 +912,19 @@
       <c r="B12" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>197</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="5">
         <v>186</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="5">
         <v>208</v>
       </c>
-      <c r="F12" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="F12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>0</v>
       </c>
     </row>
@@ -939,24 +936,21 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="3">
         <v>0.19400000000000001</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="3">
         <v>5.7599999999999998E-2</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F13" s="3" t="s">
         <v>1</v>
       </c>
       <c r="G13" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="G14" s="1"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:G12">

--- a/qsdsan/data/_impact_item.xlsx
+++ b/qsdsan/data/_impact_item.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/bfca01abaf64aab7/Coding/qs_yl/qsdsan/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="144" documentId="8_{935E0A0B-8DD3-6742-99D3-41177F9390EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C0E89C8A-0DCF-8443-8EC3-83112B8CAC8E}"/>
+  <xr:revisionPtr revIDLastSave="147" documentId="8_{935E0A0B-8DD3-6742-99D3-41177F9390EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{2A4D037B-7307-C842-B5BB-8B02115339E4}"/>
   <bookViews>
     <workbookView xWindow="9380" yWindow="2260" windowWidth="27240" windowHeight="16440" activeTab="1" xr2:uid="{BD97E243-0BB4-3F42-9EBC-00D49E7EE019}"/>
   </bookViews>
@@ -632,7 +632,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -865,13 +865,16 @@
         <v>22</v>
       </c>
       <c r="C10" s="5">
-        <v>0.65</v>
+        <f>4.33+0.65</f>
+        <v>4.9800000000000004</v>
       </c>
       <c r="D10" s="5">
-        <v>0.57999999999999996</v>
+        <f>D9+0.58</f>
+        <v>3.65</v>
       </c>
       <c r="E10" s="5">
-        <v>0.71</v>
+        <f>E9+0.71</f>
+        <v>6.21</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>1</v>
